--- a/iteration3/Issue tracking/Linked issue tracking system.xlsx
+++ b/iteration3/Issue tracking/Linked issue tracking system.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Issue</t>
   </si>
@@ -46,32 +46,45 @@
     <t xml:space="preserve">  How to display the generate calendar</t>
   </si>
   <si>
+    <t>Creating a csv file in the
+the path of the jar executable 
+file. Using it as a database.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  How to save,generate and read the database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating a csv file. Using it as an  
+intermediate to save the modified
+data. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> How to store data when users add, delete a records.</t>
+  </si>
+  <si>
     <t>Search online resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  How to save,generate and read the database</t>
-  </si>
-  <si>
-    <t>Search online resource
-Meeting
-(Uniformed after discussion)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> How to store data when users add, delete a records.</t>
   </si>
   <si>
     <t>How each operation page connects to other 
 operation pages.</t>
   </si>
   <si>
-    <t>How to modify the data in the database.</t>
+    <t>Declaring a variable on each page
+function to display its status. Thus, it can achieve the effect of each page interaction</t>
   </si>
   <si>
     <t>How to solve when the user enters somes error 
 messages.</t>
   </si>
   <si>
-    <t xml:space="preserve">How to display the information stored by users in a table format. </t>
+    <t>Restricting users input on the
+input page(Only numbers and letters are accepted)</t>
+  </si>
+  <si>
+    <t>Reading data without comment records will report errors.</t>
+  </si>
+  <si>
+    <t>Calculating the length of the record and determine whether there are comments.</t>
   </si>
 </sst>
 </file>
@@ -79,8 +92,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -115,6 +128,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -122,22 +142,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,34 +170,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,35 +242,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -258,7 +271,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,85 +280,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,103 +442,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,6 +497,26 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,7 +555,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,22 +564,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,22 +584,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,153 +606,156 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -742,7 +764,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -754,13 +776,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -768,9 +796,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1094,10 +1119,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1110,119 +1135,108 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.5" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="56" customHeight="1" spans="1:5">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="81" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="67.5" spans="1:5">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="87" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="39" customHeight="1" spans="1:5">
-      <c r="A4" s="3" t="s">
+    <row r="4" ht="58" customHeight="1" spans="1:5">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="8" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" ht="40.5" spans="1:5">
-      <c r="A5" s="3" t="s">
+    <row r="5" ht="66" customHeight="1" spans="1:5">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="10" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="53" customHeight="1" spans="1:5">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="13" t="s">
-        <v>9</v>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="7" ht="46" customHeight="1" spans="1:5">
-      <c r="A7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="14" t="s">
-        <v>6</v>
+    <row r="7" ht="69" customHeight="1" spans="1:5">
+      <c r="A7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="8" ht="40.5" spans="1:5">
-      <c r="A8" s="12" t="s">
-        <v>14</v>
+    <row r="8" s="1" customFormat="1" ht="40.5" spans="1:5">
+      <c r="A8" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="10" t="s">
-        <v>11</v>
+      <c r="D8" s="5"/>
+      <c r="E8" s="13" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="9" ht="27" spans="1:5">
-      <c r="A9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" ht="27" spans="1:5">
-      <c r="A10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5" t="s">
-        <v>6</v>
+    <row r="9" ht="40.5" spans="1:5">
+      <c r="A9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="16" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
